--- a/excel sheets/Cow_map_wrichnshansnevennormed.xlsx
+++ b/excel sheets/Cow_map_wrichnshansnevennormed.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="260" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="290">
   <si>
     <t>SampleID</t>
   </si>
@@ -881,6 +882,15 @@
   <si>
     <t>Evnev_1.1</t>
   </si>
+  <si>
+    <t>Avgrich</t>
+  </si>
+  <si>
+    <t>Avgshann</t>
+  </si>
+  <si>
+    <t>Avgeven</t>
+  </si>
 </sst>
 </file>
 
@@ -947,8 +957,180 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -973,9 +1155,181 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1307,12 +1661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AK193" sqref="AK193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="7" width="18.5" style="7"/>
     <col min="23" max="23" width="9.1640625" customWidth="1"/>
     <col min="24" max="24" width="9.33203125" customWidth="1"/>
@@ -27534,4 +27892,5775 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="A2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4837</v>
+      </c>
+      <c r="C2">
+        <v>6.5411821929991101</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.7709976030259752</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.6280207775672464</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.77874184141401115</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4837</v>
+      </c>
+      <c r="I2">
+        <v>6.5411821929991092</v>
+      </c>
+      <c r="J2">
+        <v>0.77099760302597509</v>
+      </c>
+      <c r="K2" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L2" s="5">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>62.6</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3">
+        <v>4019</v>
+      </c>
+      <c r="C3">
+        <v>5.8924213824880178</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.7100339353669114</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3978.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.8144677572815056</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.70142244156822786</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4019</v>
+      </c>
+      <c r="I3">
+        <v>5.8924213824880178</v>
+      </c>
+      <c r="J3">
+        <v>0.7100339353669114</v>
+      </c>
+      <c r="K3" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L3" s="2">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>109.4</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>4417</v>
+      </c>
+      <c r="C4">
+        <v>6.32668666304206</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.75378575438792028</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3951.6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.9968910997253193</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.72425483541242919</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4417</v>
+      </c>
+      <c r="I4">
+        <v>6.32668666304206</v>
+      </c>
+      <c r="J4">
+        <v>0.75378575438792028</v>
+      </c>
+      <c r="K4" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L4" s="2">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>526</v>
+      </c>
+      <c r="C5">
+        <v>5.1781761552319647</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.82648478970243933</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4593.6000000000004</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.1826919339950255</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.76190088136050838</v>
+      </c>
+      <c r="H5" s="7">
+        <v>526</v>
+      </c>
+      <c r="I5">
+        <v>5.1781761552319647</v>
+      </c>
+      <c r="J5">
+        <v>0.82648478970243933</v>
+      </c>
+      <c r="K5" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L5" s="2">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>3107</v>
+      </c>
+      <c r="C6">
+        <v>5.5624982841349562</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.69173145898744859</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2440</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.3345704157012186</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.69888701243646589</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3107</v>
+      </c>
+      <c r="I6">
+        <v>5.5624982841349562</v>
+      </c>
+      <c r="J6">
+        <v>0.69173145898744859</v>
+      </c>
+      <c r="K6" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>38</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7">
+        <v>4747</v>
+      </c>
+      <c r="C7">
+        <v>6.3703481704078566</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.75252763187116034</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5180</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.3942205583629406</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.74804525709346437</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4747</v>
+      </c>
+      <c r="I7">
+        <v>6.3703481704078566</v>
+      </c>
+      <c r="J7">
+        <v>0.75252763187116034</v>
+      </c>
+      <c r="K7" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <v>3810</v>
+      </c>
+      <c r="C8">
+        <v>6.0939481173709034</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.73907385894884903</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4639.3999999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.3578734496574656</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.75352158291115567</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3810</v>
+      </c>
+      <c r="I8">
+        <v>6.0939481173709034</v>
+      </c>
+      <c r="J8">
+        <v>0.73907385894884903</v>
+      </c>
+      <c r="K8" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L8" s="5">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>3</v>
+      </c>
+      <c r="T8" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>95</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>98.8</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9">
+        <v>4442</v>
+      </c>
+      <c r="C9">
+        <v>5.7779184264272443</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.68794079474629888</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4959.3999999999996</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.003261155639497</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.70628347402213276</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4442</v>
+      </c>
+      <c r="I9">
+        <v>5.7779184264272452</v>
+      </c>
+      <c r="J9">
+        <v>0.68794079474629899</v>
+      </c>
+      <c r="K9" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L9" s="2">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10">
+        <v>6896</v>
+      </c>
+      <c r="C10">
+        <v>6.4979955752434249</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.73517575194668527</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7644.4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6.5640527579631067</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.73532424305017186</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6896</v>
+      </c>
+      <c r="I10">
+        <v>6.4979955752434249</v>
+      </c>
+      <c r="J10">
+        <v>0.73517575194668527</v>
+      </c>
+      <c r="K10" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L10" s="5">
+        <v>30</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5">
+        <v>2</v>
+      </c>
+      <c r="S10" s="5">
+        <v>4</v>
+      </c>
+      <c r="T10" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>59</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>63.8</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11">
+        <v>4139</v>
+      </c>
+      <c r="C11">
+        <v>5.7597512554749164</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.69159538568061429</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4513.2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6.0987123449245999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.73919101706793056</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4139</v>
+      </c>
+      <c r="I11">
+        <v>5.7597512554749164</v>
+      </c>
+      <c r="J11">
+        <v>0.69159538568061429</v>
+      </c>
+      <c r="K11" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L11" s="5">
+        <v>34</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3</v>
+      </c>
+      <c r="R11" s="5">
+        <v>2</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3</v>
+      </c>
+      <c r="T11" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1</v>
+      </c>
+      <c r="X11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>110</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>103.4</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>5859</v>
+      </c>
+      <c r="C12">
+        <v>6.6840913590399023</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.77043523808992542</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5105.3999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.3440997078529744</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.74330903110904478</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5859</v>
+      </c>
+      <c r="I12">
+        <v>6.6840913590399023</v>
+      </c>
+      <c r="J12">
+        <v>0.77043523808992542</v>
+      </c>
+      <c r="K12" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L12" s="5">
+        <v>35</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>3</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>3</v>
+      </c>
+      <c r="T12" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13">
+        <v>3693</v>
+      </c>
+      <c r="C13">
+        <v>5.8934630494751454</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.7174730413999979</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3943.8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.0616145715113019</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.73246089587755381</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3693</v>
+      </c>
+      <c r="I13">
+        <v>5.8934630494751445</v>
+      </c>
+      <c r="J13">
+        <v>0.71747304139999779</v>
+      </c>
+      <c r="K13" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L13" s="2">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14">
+        <v>5483</v>
+      </c>
+      <c r="C14">
+        <v>6.5619916949349903</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.76218852008620086</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4290.3999999999996</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.3046999669779682</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.75965168393667271</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5483</v>
+      </c>
+      <c r="I14">
+        <v>6.5619916949349903</v>
+      </c>
+      <c r="J14">
+        <v>0.76218852008620086</v>
+      </c>
+      <c r="K14" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L14" s="5">
+        <v>39</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="5">
+        <v>3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3</v>
+      </c>
+      <c r="R14" s="5">
+        <v>2</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2</v>
+      </c>
+      <c r="T14" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>54</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>60.8</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="A15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>4761</v>
+      </c>
+      <c r="C15">
+        <v>6.2403702824217255</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.73691701846022628</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5128.6000000000004</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.4097126484340494</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.75087051982882969</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4761</v>
+      </c>
+      <c r="I15">
+        <v>6.2403702824217255</v>
+      </c>
+      <c r="J15">
+        <v>0.73691701846022628</v>
+      </c>
+      <c r="K15" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L15" s="2">
+        <v>42</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>63</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16">
+        <v>4224</v>
+      </c>
+      <c r="C16">
+        <v>6.2941594338028306</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.75392356906662783</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4048.4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6.0032121799716105</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.72303633466531181</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4224</v>
+      </c>
+      <c r="I16">
+        <v>6.2941594338028315</v>
+      </c>
+      <c r="J16">
+        <v>0.75392356906662794</v>
+      </c>
+      <c r="K16" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L16" s="5">
+        <v>44</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>3</v>
+      </c>
+      <c r="S16" s="5">
+        <v>3</v>
+      </c>
+      <c r="T16" s="5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>65</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>54</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
+      <c r="A17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>2986</v>
+      </c>
+      <c r="C17">
+        <v>6.1417074095371023</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.76755128308484077</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3428.2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6.100506839106167</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.76046738464035235</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2986</v>
+      </c>
+      <c r="I17">
+        <v>6.1417074095371014</v>
+      </c>
+      <c r="J17">
+        <v>0.76755128308484066</v>
+      </c>
+      <c r="K17" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" s="5">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>3</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2</v>
+      </c>
+      <c r="T17" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>80</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>83</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18">
+        <v>3820</v>
+      </c>
+      <c r="C18">
+        <v>6.248972079392912</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.75763430645789043</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3499.6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.0186870643929682</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.74207208624511622</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3820</v>
+      </c>
+      <c r="I18">
+        <v>6.248972079392912</v>
+      </c>
+      <c r="J18">
+        <v>0.75763430645789043</v>
+      </c>
+      <c r="K18" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L18" s="5">
+        <v>48</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O18" s="5">
+        <v>2</v>
+      </c>
+      <c r="P18" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>2</v>
+      </c>
+      <c r="S18" s="5">
+        <v>3</v>
+      </c>
+      <c r="T18" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>95</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>93.6</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>4513</v>
+      </c>
+      <c r="C19">
+        <v>6.0036753294740777</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.71347319751908811</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3896</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.9048881305188337</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.71471662348694842</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4513</v>
+      </c>
+      <c r="I19">
+        <v>6.0036753294740777</v>
+      </c>
+      <c r="J19">
+        <v>0.71347319751908811</v>
+      </c>
+      <c r="K19" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L19" s="2">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="2">
+        <v>6</v>
+      </c>
+      <c r="P19" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2">
+        <v>38</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
+      <c r="A20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20">
+        <v>2991</v>
+      </c>
+      <c r="C20">
+        <v>5.318205970546054</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.66449640377259722</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3624.6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.7954115889079043</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.70864649935847146</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2991</v>
+      </c>
+      <c r="I20">
+        <v>5.3182059705460532</v>
+      </c>
+      <c r="J20">
+        <v>0.66449640377259711</v>
+      </c>
+      <c r="K20" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L20" s="5">
+        <v>52</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3</v>
+      </c>
+      <c r="P20" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>2</v>
+      </c>
+      <c r="S20" s="5">
+        <v>2</v>
+      </c>
+      <c r="T20" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="X20" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="A21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21">
+        <v>4449</v>
+      </c>
+      <c r="C21">
+        <v>6.1886616189266022</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.73670731228971964</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3899.2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6.2658173244036899</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.75821570477915667</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4449</v>
+      </c>
+      <c r="I21">
+        <v>6.1886616189266022</v>
+      </c>
+      <c r="J21">
+        <v>0.73670731228971964</v>
+      </c>
+      <c r="K21" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L21" s="5">
+        <v>53</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="5">
+        <v>6</v>
+      </c>
+      <c r="P21" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>2</v>
+      </c>
+      <c r="R21" s="5">
+        <v>3</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2</v>
+      </c>
+      <c r="T21" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="X21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>4725</v>
+      </c>
+      <c r="C22">
+        <v>6.1761277148214475</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.7299849942104405</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4372.3999999999996</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6.0828107990670661</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.72589315272123056</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4725</v>
+      </c>
+      <c r="I22">
+        <v>6.1761277148214466</v>
+      </c>
+      <c r="J22">
+        <v>0.72998499421044039</v>
+      </c>
+      <c r="K22" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L22" s="5">
+        <v>55</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>3</v>
+      </c>
+      <c r="R22" s="5">
+        <v>2</v>
+      </c>
+      <c r="S22" s="5">
+        <v>3</v>
+      </c>
+      <c r="T22" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1</v>
+      </c>
+      <c r="X22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
+      <c r="A23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>4461</v>
+      </c>
+      <c r="C23">
+        <v>6.1034887442852579</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.72633530912575617</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4384.5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.0554390786811449</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.72245650404624939</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4461</v>
+      </c>
+      <c r="I23">
+        <v>6.1034887442852579</v>
+      </c>
+      <c r="J23">
+        <v>0.72633530912575617</v>
+      </c>
+      <c r="K23" s="6">
+        <v>41835</v>
+      </c>
+      <c r="L23" s="5">
+        <v>57</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>3</v>
+      </c>
+      <c r="R23" s="5">
+        <v>3</v>
+      </c>
+      <c r="S23" s="5">
+        <v>2</v>
+      </c>
+      <c r="T23" s="5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="5">
+        <v>2</v>
+      </c>
+      <c r="X23" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>4388</v>
+      </c>
+      <c r="C24">
+        <v>5.9602148266824271</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.71068065054665697</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4313.8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.9963915532718213</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.71740181726592911</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4388</v>
+      </c>
+      <c r="I24">
+        <v>5.9602148266824262</v>
+      </c>
+      <c r="J24">
+        <v>0.71068065054665686</v>
+      </c>
+      <c r="K24" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L24" s="2">
+        <v>58</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2</v>
+      </c>
+      <c r="S24" s="2">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>3671</v>
+      </c>
+      <c r="C25">
+        <v>5.9136752846104166</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.7204577519577815</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3428.75</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5.9229777389717002</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.72805781713782991</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3671</v>
+      </c>
+      <c r="I25">
+        <v>5.9136752846104175</v>
+      </c>
+      <c r="J25">
+        <v>0.72045775195778161</v>
+      </c>
+      <c r="K25" s="3">
+        <v>41835</v>
+      </c>
+      <c r="L25" s="2">
+        <v>60</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>3</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>3</v>
+      </c>
+      <c r="T25" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="2">
+        <v>2</v>
+      </c>
+      <c r="X25" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>4173</v>
+      </c>
+      <c r="C26">
+        <v>6.0785973195639853</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.72916417887524942</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3759.8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5.8288046955063972</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.71087956755958959</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4173</v>
+      </c>
+      <c r="I26">
+        <v>6.0785973195639862</v>
+      </c>
+      <c r="J26">
+        <v>0.72916417887524954</v>
+      </c>
+      <c r="K26" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L26" s="2">
+        <v>61</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>2</v>
+      </c>
+      <c r="S26" s="2">
+        <v>3</v>
+      </c>
+      <c r="T26" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>3654</v>
+      </c>
+      <c r="C27">
+        <v>6.4424167426789509</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.78531793679127526</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4555</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6.2464310475694296</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.74262749972645259</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3654</v>
+      </c>
+      <c r="I27">
+        <v>6.44241674267895</v>
+      </c>
+      <c r="J27">
+        <v>0.78531793679127515</v>
+      </c>
+      <c r="K27" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L27" s="2">
+        <v>62</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>3</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2</v>
+      </c>
+      <c r="S27" s="2">
+        <v>4</v>
+      </c>
+      <c r="T27" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>3659</v>
+      </c>
+      <c r="C28">
+        <v>5.8155607183537503</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.70878727418529142</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4250.6000000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5.9092964977891809</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.70843353934299702</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3659</v>
+      </c>
+      <c r="I28">
+        <v>5.8155607183537503</v>
+      </c>
+      <c r="J28">
+        <v>0.70878727418529142</v>
+      </c>
+      <c r="K28" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L28" s="5">
+        <v>63</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>3</v>
+      </c>
+      <c r="R28" s="5">
+        <v>3</v>
+      </c>
+      <c r="S28" s="5">
+        <v>3</v>
+      </c>
+      <c r="T28" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="5">
+        <v>1</v>
+      </c>
+      <c r="X28" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29">
+        <v>3801</v>
+      </c>
+      <c r="C29">
+        <v>6.0203803488517336</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.73036104930975565</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2877.4</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5.8512563680164131</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.74375514937081255</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3801</v>
+      </c>
+      <c r="I29">
+        <v>6.0203803488517345</v>
+      </c>
+      <c r="J29">
+        <v>0.73036104930975576</v>
+      </c>
+      <c r="K29" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L29" s="2">
+        <v>64</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>3</v>
+      </c>
+      <c r="R29" s="2">
+        <v>2</v>
+      </c>
+      <c r="S29" s="2">
+        <v>3</v>
+      </c>
+      <c r="T29" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>4785</v>
+      </c>
+      <c r="C30">
+        <v>6.4483757434490174</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.76102821956585365</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4240.8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>6.4224966117231634</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.77462799704301877</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4785</v>
+      </c>
+      <c r="I30">
+        <v>6.4483757434490174</v>
+      </c>
+      <c r="J30">
+        <v>0.76102821956585365</v>
+      </c>
+      <c r="K30" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L30" s="5">
+        <v>65</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>3</v>
+      </c>
+      <c r="R30" s="5">
+        <v>2</v>
+      </c>
+      <c r="S30" s="5">
+        <v>3</v>
+      </c>
+      <c r="T30" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" s="5">
+        <v>1</v>
+      </c>
+      <c r="X30" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>4208</v>
+      </c>
+      <c r="C31">
+        <v>5.7434791778751535</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.68827516280650669</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4003.4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5.8373334085158177</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.70471925784267753</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4208</v>
+      </c>
+      <c r="I31">
+        <v>5.7434791778751535</v>
+      </c>
+      <c r="J31">
+        <v>0.68827516280650669</v>
+      </c>
+      <c r="K31" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L31" s="2">
+        <v>66</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" s="2">
+        <v>1</v>
+      </c>
+      <c r="X31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>4030</v>
+      </c>
+      <c r="C32">
+        <v>6.1811656061828701</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.74458224204042056</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4484.3999999999996</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6.2983651693513192</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.74959641459053472</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4030</v>
+      </c>
+      <c r="I32">
+        <v>6.1811656061828701</v>
+      </c>
+      <c r="J32">
+        <v>0.74458224204042056</v>
+      </c>
+      <c r="K32" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L32" s="2">
+        <v>67</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="2">
+        <v>4</v>
+      </c>
+      <c r="P32" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>3</v>
+      </c>
+      <c r="R32" s="2">
+        <v>2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>5</v>
+      </c>
+      <c r="T32" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
+      <c r="A33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>3641</v>
+      </c>
+      <c r="C33">
+        <v>6.0642098640484283</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.73953655740533575</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3828.4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6.1206964483029838</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.74211621912497172</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3641</v>
+      </c>
+      <c r="I33">
+        <v>6.0642098640484292</v>
+      </c>
+      <c r="J33">
+        <v>0.73953655740533586</v>
+      </c>
+      <c r="K33" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L33" s="5">
+        <v>68</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>3</v>
+      </c>
+      <c r="R33" s="5">
+        <v>4</v>
+      </c>
+      <c r="S33" s="5">
+        <v>3</v>
+      </c>
+      <c r="T33" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="5">
+        <v>1</v>
+      </c>
+      <c r="X33" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34">
+        <v>4278</v>
+      </c>
+      <c r="C34">
+        <v>6.5343708238286764</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.78150730376913968</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3486.2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6.2343037555728742</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.78238681914988351</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4278</v>
+      </c>
+      <c r="I34">
+        <v>6.5343708238286764</v>
+      </c>
+      <c r="J34">
+        <v>0.78150730376913968</v>
+      </c>
+      <c r="K34" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L34" s="2">
+        <v>69</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>3</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2</v>
+      </c>
+      <c r="S34" s="2">
+        <v>3</v>
+      </c>
+      <c r="T34" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
+      <c r="A35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35">
+        <v>4365</v>
+      </c>
+      <c r="C35">
+        <v>6.3476936702829807</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.75735721529545497</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3963</v>
+      </c>
+      <c r="F35" s="4">
+        <v>6.3004986116474964</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.76997053578501329</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4365</v>
+      </c>
+      <c r="I35">
+        <v>6.3476936702829798</v>
+      </c>
+      <c r="J35">
+        <v>0.75735721529545486</v>
+      </c>
+      <c r="K35" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L35" s="2">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4</v>
+      </c>
+      <c r="P35" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>3</v>
+      </c>
+      <c r="R35" s="2">
+        <v>3</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>4935</v>
+      </c>
+      <c r="C36">
+        <v>6.3410531845743048</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.74564589495618416</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3917.4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>6.2281407972036105</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.75387757982938597</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4935</v>
+      </c>
+      <c r="I36">
+        <v>6.3410531845743048</v>
+      </c>
+      <c r="J36">
+        <v>0.74564589495618416</v>
+      </c>
+      <c r="K36" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L36" s="5">
+        <v>70</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>3</v>
+      </c>
+      <c r="R36" s="5">
+        <v>3</v>
+      </c>
+      <c r="S36" s="5">
+        <v>4</v>
+      </c>
+      <c r="T36" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" s="5">
+        <v>1</v>
+      </c>
+      <c r="X36" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR36" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>3991</v>
+      </c>
+      <c r="C37">
+        <v>5.8423305264776237</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.70459159244505976</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3577</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5.7986433028975641</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.70915518820693135</v>
+      </c>
+      <c r="H37" s="7">
+        <v>3991</v>
+      </c>
+      <c r="I37">
+        <v>5.8423305264776237</v>
+      </c>
+      <c r="J37">
+        <v>0.70459159244505976</v>
+      </c>
+      <c r="K37" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L37" s="5">
+        <v>71</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="5">
+        <v>4</v>
+      </c>
+      <c r="P37" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>3</v>
+      </c>
+      <c r="R37" s="5">
+        <v>2</v>
+      </c>
+      <c r="S37" s="5">
+        <v>3</v>
+      </c>
+      <c r="T37" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="5">
+        <v>1</v>
+      </c>
+      <c r="X37" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR37" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
+      <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38">
+        <v>3104</v>
+      </c>
+      <c r="C38">
+        <v>5.7816964271420428</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.71907650314642801</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3359.8</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.932238887577987</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.73133097619402787</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3104</v>
+      </c>
+      <c r="I38">
+        <v>5.7816964271420428</v>
+      </c>
+      <c r="J38">
+        <v>0.71907650314642801</v>
+      </c>
+      <c r="K38" s="3">
+        <v>41834</v>
+      </c>
+      <c r="L38" s="2">
+        <v>73</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2</v>
+      </c>
+      <c r="S38" s="2">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
+      <c r="A39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39">
+        <v>3171</v>
+      </c>
+      <c r="C39">
+        <v>5.9416725605059408</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.73701541642513002</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3251.8</v>
+      </c>
+      <c r="F39" s="4">
+        <v>5.9469171009331872</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.73553784729205351</v>
+      </c>
+      <c r="H39" s="7">
+        <v>3171</v>
+      </c>
+      <c r="I39">
+        <v>5.9416725605059408</v>
+      </c>
+      <c r="J39">
+        <v>0.73701541642513002</v>
+      </c>
+      <c r="K39" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L39" s="5">
+        <v>74</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O39" s="5">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>3</v>
+      </c>
+      <c r="R39" s="5">
+        <v>4</v>
+      </c>
+      <c r="S39" s="5">
+        <v>3</v>
+      </c>
+      <c r="T39" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" s="5">
+        <v>1</v>
+      </c>
+      <c r="X39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR39" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT39" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46">
+      <c r="A40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40">
+        <v>4826</v>
+      </c>
+      <c r="C40">
+        <v>6.400042583515809</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" ref="D40:D41" si="0">C40/LN(B40)</f>
+        <v>0.75456421643840677</v>
+      </c>
+      <c r="E40" s="4">
+        <f>AVERAGE(B40:B43)</f>
+        <v>4627</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" ref="F40:G40" si="1">AVERAGE(C40:C43)</f>
+        <v>6.4243595211186468</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>0.7613283419314969</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4826</v>
+      </c>
+      <c r="I40">
+        <v>6.400042583515809</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J41" si="2">I40/LN(H40)</f>
+        <v>0.75456421643840677</v>
+      </c>
+      <c r="K40" s="3">
+        <v>41835</v>
+      </c>
+      <c r="L40" s="2">
+        <v>7</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3</v>
+      </c>
+      <c r="P40" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>3</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2</v>
+      </c>
+      <c r="S40" s="2">
+        <v>3</v>
+      </c>
+      <c r="T40" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" s="2">
+        <v>2</v>
+      </c>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
+      <c r="A41" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41">
+        <v>4428</v>
+      </c>
+      <c r="C41">
+        <v>6.4486764587214847</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76809246742458692</v>
+      </c>
+      <c r="E41" s="4">
+        <f>AVERAGE(B41:B45)</f>
+        <v>4428</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ref="F41:G41" si="3">AVERAGE(C41:C45)</f>
+        <v>6.4486764587214847</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="3"/>
+        <v>0.76809246742458692</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4428</v>
+      </c>
+      <c r="I41">
+        <v>6.4486764587214847</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>0.76809246742458692</v>
+      </c>
+      <c r="K41" s="6">
+        <v>41834</v>
+      </c>
+      <c r="L41" s="5">
+        <v>8</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>3</v>
+      </c>
+      <c r="R41" s="5">
+        <v>2</v>
+      </c>
+      <c r="S41" s="5">
+        <v>3</v>
+      </c>
+      <c r="T41" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" s="5">
+        <v>1</v>
+      </c>
+      <c r="X41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK41" s="5">
+        <v>64</v>
+      </c>
+      <c r="AL41" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="5">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>